--- a/ig/ch-term/CodeSystem-allergyintolerance-clinical-supplement.xlsx
+++ b/ig/ch-term/CodeSystem-allergyintolerance-clinical-supplement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,19 +48,19 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
   </si>
   <si>
-    <t>true</t>
+    <t>false</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T11:36:46+00:00</t>
+    <t>2024-12-17T13:29:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>active</t>
   </si>
   <si>
     <t>Active</t>
@@ -505,10 +502,10 @@
         <v>42</v>
       </c>
       <c r="B2" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>43</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -517,10 +514,10 @@
         <v>42</v>
       </c>
       <c r="B3" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -529,10 +526,10 @@
         <v>42</v>
       </c>
       <c r="B4" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>48</v>
       </c>
       <c r="D4" s="2"/>
     </row>

--- a/ig/ch-term/CodeSystem-allergyintolerance-clinical-supplement.xlsx
+++ b/ig/ch-term/CodeSystem-allergyintolerance-clinical-supplement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T13:29:11+00:00</t>
+    <t>2025-05-21T19:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -123,7 +123,7 @@
     <t>Supplements</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/allergyintolerance-clinical</t>
+    <t>http://terminology.hl7.org/CodeSystem/allergyintolerance-clinical|1.0.1</t>
   </si>
   <si>
     <t>Count</t>

--- a/ig/ch-term/CodeSystem-allergyintolerance-clinical-supplement.xlsx
+++ b/ig/ch-term/CodeSystem-allergyintolerance-clinical-supplement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.2.0</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T19:27:50+00:00</t>
+    <t>2025-12-15T10:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -123,7 +123,7 @@
     <t>Supplements</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/allergyintolerance-clinical|1.0.1</t>
+    <t>http://terminology.hl7.org/CodeSystem/allergyintolerance-clinical</t>
   </si>
   <si>
     <t>Count</t>
